--- a/biology/Biochimie/DMSO_réductase/DMSO_réductase.xlsx
+++ b/biology/Biochimie/DMSO_réductase/DMSO_réductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DMSO_r%C3%A9ductase</t>
+          <t>DMSO_réductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diméthylsulfoxyde réductase, ou DMSO réductase (DMSOR), est une oxydoréductase qui catalyse la réaction :
 Sulfure de diméthyle + ménaquinone + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   DMSO + ménaquinol.
-Cette enzyme intervient à l'étape finale de la respiration anaérobie de certaines bactéries et archées pour réduire le DMSO (CH3)2S=O en sulfure de diméthyle (CH3)2S avec libération d'eau. Au cours de cette réaction, l'atome d'oxygène est d'abord transféré à un cation de molybdène, élément assez rare en biochimie[2], avant d'être réduit en eau.
-Chez Rhodobacter sphaeroides, la DMSO réductase est une protéine hydrosoluble constituée d'une seule sous-unité qui n'a besoin d'aucun autre cofacteur autre que la molybdoptérine. Chez Escherichia coli, elle est incluse dans la membrane plasmique et est constituée de trois sous-unités distinctes : l'une contient le cofacteur à molybdène, l'autre contient quatre centres [4Fe-4S] et la troisième est transmembranaire et oxyde le ménaquinol en ménaquinone. La circulation d'électrons du ménaquinol à travers les centres [4Fe-4S] jusqu'au cofacteur à molybdène génère un gradient de concentration en protons à travers la membrane plasmique utilisé pour produire de l'ATP par couplage chimiosmotique[3].
+Cette enzyme intervient à l'étape finale de la respiration anaérobie de certaines bactéries et archées pour réduire le DMSO (CH3)2S=O en sulfure de diméthyle (CH3)2S avec libération d'eau. Au cours de cette réaction, l'atome d'oxygène est d'abord transféré à un cation de molybdène, élément assez rare en biochimie, avant d'être réduit en eau.
+Chez Rhodobacter sphaeroides, la DMSO réductase est une protéine hydrosoluble constituée d'une seule sous-unité qui n'a besoin d'aucun autre cofacteur autre que la molybdoptérine. Chez Escherichia coli, elle est incluse dans la membrane plasmique et est constituée de trois sous-unités distinctes : l'une contient le cofacteur à molybdène, l'autre contient quatre centres [4Fe-4S] et la troisième est transmembranaire et oxyde le ménaquinol en ménaquinone. La circulation d'électrons du ménaquinol à travers les centres [4Fe-4S] jusqu'au cofacteur à molybdène génère un gradient de concentration en protons à travers la membrane plasmique utilisé pour produire de l'ATP par couplage chimiosmotique.
 </t>
         </is>
       </c>
